--- a/Code/Results/Cases/Case_8_7/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_7/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014731903506238</v>
+        <v>1.010258096908881</v>
       </c>
       <c r="D2">
-        <v>1.030409785685183</v>
+        <v>1.026716147582046</v>
       </c>
       <c r="E2">
-        <v>1.026487468936508</v>
+        <v>1.023130566731608</v>
       </c>
       <c r="F2">
-        <v>1.033197073598454</v>
+        <v>1.03043376598863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.05195171094979</v>
+        <v>1.05007620896938</v>
       </c>
       <c r="J2">
-        <v>1.036480740211207</v>
+        <v>1.032136259965105</v>
       </c>
       <c r="K2">
-        <v>1.041461116796824</v>
+        <v>1.03781542028087</v>
       </c>
       <c r="L2">
-        <v>1.037589723975272</v>
+        <v>1.034276793546169</v>
       </c>
       <c r="M2">
-        <v>1.044212510833056</v>
+        <v>1.041484787252884</v>
       </c>
       <c r="N2">
-        <v>1.037952661748328</v>
+        <v>1.027615713958429</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043563620797156</v>
+        <v>1.041404816391245</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.040386882752132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037817826684773</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021808281974914</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.020411054650764</v>
+        <v>1.014953690027899</v>
       </c>
       <c r="D3">
-        <v>1.034264139490892</v>
+        <v>1.029763910197279</v>
       </c>
       <c r="E3">
-        <v>1.031090747386671</v>
+        <v>1.026903203566701</v>
       </c>
       <c r="F3">
-        <v>1.037422882377278</v>
+        <v>1.033999533473864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053418875036752</v>
+        <v>1.051131385473424</v>
       </c>
       <c r="J3">
-        <v>1.040360347157778</v>
+        <v>1.035044840192752</v>
       </c>
       <c r="K3">
-        <v>1.044476600077898</v>
+        <v>1.040029609690059</v>
       </c>
       <c r="L3">
-        <v>1.041340690188228</v>
+        <v>1.037203046850691</v>
       </c>
       <c r="M3">
-        <v>1.047598315484966</v>
+        <v>1.044215108543975</v>
       </c>
       <c r="N3">
-        <v>1.041837778181742</v>
+        <v>1.029246469310479</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.046243241931803</v>
+        <v>1.043565676702446</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.042516428308906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039380507787151</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.0223272448316</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.023996623652794</v>
+        <v>1.017926779894637</v>
       </c>
       <c r="D4">
-        <v>1.036698620619465</v>
+        <v>1.031694290003313</v>
       </c>
       <c r="E4">
-        <v>1.034002878103689</v>
+        <v>1.029297935621096</v>
       </c>
       <c r="F4">
-        <v>1.040100837083442</v>
+        <v>1.03626662455618</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.054329687296271</v>
+        <v>1.05178419296182</v>
       </c>
       <c r="J4">
-        <v>1.042805793566947</v>
+        <v>1.036882773398361</v>
       </c>
       <c r="K4">
-        <v>1.04637341727799</v>
+        <v>1.041424668835735</v>
       </c>
       <c r="L4">
-        <v>1.043707533651005</v>
+        <v>1.039055165967349</v>
       </c>
       <c r="M4">
-        <v>1.049738221080108</v>
+        <v>1.04594619328879</v>
       </c>
       <c r="N4">
-        <v>1.044286697405308</v>
+        <v>1.030276933632997</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.047936818434977</v>
+        <v>1.04493570713208</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.043858524920936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.04036790811923</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022651575765762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025490371695539</v>
+        <v>1.019166347893598</v>
       </c>
       <c r="D5">
-        <v>1.037715353524907</v>
+        <v>1.032501592766702</v>
       </c>
       <c r="E5">
-        <v>1.035218863639834</v>
+        <v>1.030298798433361</v>
       </c>
       <c r="F5">
-        <v>1.041219001459506</v>
+        <v>1.037214096169253</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.054707179361032</v>
+        <v>1.052054376657331</v>
       </c>
       <c r="J5">
-        <v>1.043825576423472</v>
+        <v>1.037649840045415</v>
       </c>
       <c r="K5">
-        <v>1.047165199726305</v>
+        <v>1.042007784863486</v>
       </c>
       <c r="L5">
-        <v>1.044695602947741</v>
+        <v>1.039829006825833</v>
       </c>
       <c r="M5">
-        <v>1.050631371382356</v>
+        <v>1.046669329369115</v>
       </c>
       <c r="N5">
-        <v>1.045307928470461</v>
+        <v>1.030706998398286</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04864367948276</v>
+        <v>1.045508017137711</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.044425505945283</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040788083851852</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022787792099521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025748315159998</v>
+        <v>1.019379389441565</v>
       </c>
       <c r="D6">
-        <v>1.037893802401935</v>
+        <v>1.03264323625908</v>
       </c>
       <c r="E6">
-        <v>1.035430687127139</v>
+        <v>1.03047214342594</v>
       </c>
       <c r="F6">
-        <v>1.041412465870469</v>
+        <v>1.037377125745528</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054774380846224</v>
+        <v>1.052102718522643</v>
       </c>
       <c r="J6">
-        <v>1.044004061545069</v>
+        <v>1.03778368794078</v>
       </c>
       <c r="K6">
-        <v>1.047305853622511</v>
+        <v>1.042111767341876</v>
       </c>
       <c r="L6">
-        <v>1.044869146441075</v>
+        <v>1.039964235130923</v>
       </c>
       <c r="M6">
-        <v>1.050787057200302</v>
+        <v>1.046794703742021</v>
       </c>
       <c r="N6">
-        <v>1.045486667061402</v>
+        <v>1.030782041617656</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048766892987314</v>
+        <v>1.045607241857892</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.044533650768621</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040871200378469</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022813615220296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024039186846302</v>
+        <v>1.018000330629921</v>
       </c>
       <c r="D7">
-        <v>1.036735293044167</v>
+        <v>1.03175424536993</v>
       </c>
       <c r="E7">
-        <v>1.034042378328007</v>
+        <v>1.029366994692787</v>
       </c>
       <c r="F7">
-        <v>1.040133388249784</v>
+        <v>1.036321940216697</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.054346483346086</v>
+        <v>1.051812819647582</v>
       </c>
       <c r="J7">
-        <v>1.04284146206867</v>
+        <v>1.036948604387433</v>
       </c>
       <c r="K7">
-        <v>1.046406825204577</v>
+        <v>1.0414810763194</v>
       </c>
       <c r="L7">
-        <v>1.04374372542704</v>
+        <v>1.039120562108176</v>
       </c>
       <c r="M7">
-        <v>1.049767568559209</v>
+        <v>1.045998036489609</v>
       </c>
       <c r="N7">
-        <v>1.044322416560395</v>
+        <v>1.030365801662791</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.047960044760201</v>
+        <v>1.044976737297926</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.043902147686625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040429862542843</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022675559564509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016699140554457</v>
+        <v>1.012010687296704</v>
       </c>
       <c r="D8">
-        <v>1.03175427638131</v>
+        <v>1.02787774347375</v>
       </c>
       <c r="E8">
-        <v>1.028087379894897</v>
+        <v>1.024563224545034</v>
       </c>
       <c r="F8">
-        <v>1.034659935804419</v>
+        <v>1.031760723146604</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.052470533035074</v>
+        <v>1.050501454863635</v>
       </c>
       <c r="J8">
-        <v>1.037833782026886</v>
+        <v>1.033276130515269</v>
       </c>
       <c r="K8">
-        <v>1.042520631806622</v>
+        <v>1.038692883087803</v>
       </c>
       <c r="L8">
-        <v>1.038899869598927</v>
+        <v>1.035420441361131</v>
       </c>
       <c r="M8">
-        <v>1.045390023616369</v>
+        <v>1.042526997823341</v>
       </c>
       <c r="N8">
-        <v>1.039307625038563</v>
+        <v>1.028412571353888</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04449553868114</v>
+        <v>1.042229654675908</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.041158881141611</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038463429570832</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.0220412331574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00300039656456</v>
+        <v>1.000775487731473</v>
       </c>
       <c r="D9">
-        <v>1.022457872495268</v>
+        <v>1.020587262790044</v>
       </c>
       <c r="E9">
-        <v>1.017014778396607</v>
+        <v>1.015575280668542</v>
       </c>
       <c r="F9">
-        <v>1.024526798397919</v>
+        <v>1.023284787042885</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048838481155655</v>
+        <v>1.04789060785376</v>
       </c>
       <c r="J9">
-        <v>1.028447646178056</v>
+        <v>1.026300891216518</v>
       </c>
       <c r="K9">
-        <v>1.035196799330355</v>
+        <v>1.03335492861775</v>
       </c>
       <c r="L9">
-        <v>1.02983770520781</v>
+        <v>1.028420614829366</v>
       </c>
       <c r="M9">
-        <v>1.037234095273408</v>
+        <v>1.036011052348217</v>
       </c>
       <c r="N9">
-        <v>1.029908159800223</v>
+        <v>1.024521338613814</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038040675049281</v>
+        <v>1.037072714602598</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035977262554174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.034685685579817</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020775899080661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9935010145828342</v>
+        <v>0.9932374598030735</v>
       </c>
       <c r="D10">
-        <v>1.016041374854794</v>
+        <v>1.015745155740116</v>
       </c>
       <c r="E10">
-        <v>1.009440684692498</v>
+        <v>1.009675976910361</v>
       </c>
       <c r="F10">
-        <v>1.017661130489038</v>
+        <v>1.017748810960152</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046264771032763</v>
+        <v>1.046114908732813</v>
       </c>
       <c r="J10">
-        <v>1.021974877160231</v>
+        <v>1.021721978102914</v>
       </c>
       <c r="K10">
-        <v>1.030126914220554</v>
+        <v>1.029835829080559</v>
       </c>
       <c r="L10">
-        <v>1.023641551393264</v>
+        <v>1.023872698984633</v>
       </c>
       <c r="M10">
-        <v>1.031718665126848</v>
+        <v>1.031804832937617</v>
       </c>
       <c r="N10">
-        <v>1.023426198707956</v>
+        <v>1.022187862367317</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.033727290161387</v>
+        <v>1.033795482551243</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032409356115854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.032216001999104</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019980259862818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9907595456975955</v>
+        <v>0.9912260714620347</v>
       </c>
       <c r="D11">
-        <v>1.014314078305685</v>
+        <v>1.014597827391911</v>
       </c>
       <c r="E11">
-        <v>1.007797847941744</v>
+        <v>1.00862485473131</v>
       </c>
       <c r="F11">
-        <v>1.016500760539907</v>
+        <v>1.017064631817372</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045672051201698</v>
+        <v>1.045815513673201</v>
       </c>
       <c r="J11">
-        <v>1.020521855816444</v>
+        <v>1.020968466888586</v>
       </c>
       <c r="K11">
-        <v>1.028971008112098</v>
+        <v>1.029249602668534</v>
       </c>
       <c r="L11">
-        <v>1.0225741914637</v>
+        <v>1.023385931465285</v>
       </c>
       <c r="M11">
-        <v>1.031118064195864</v>
+        <v>1.031671753155551</v>
       </c>
       <c r="N11">
-        <v>1.021971113907197</v>
+        <v>1.022211079222037</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.033690611991764</v>
+        <v>1.034128573467971</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031625056781468</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031837715838914</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020030544780765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9902922754520099</v>
+        <v>0.9908549670950534</v>
       </c>
       <c r="D12">
-        <v>1.014085703007113</v>
+        <v>1.014444992281205</v>
       </c>
       <c r="E12">
-        <v>1.007825957957666</v>
+        <v>1.008692875200102</v>
       </c>
       <c r="F12">
-        <v>1.016761828918717</v>
+        <v>1.017366115864148</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045659129117421</v>
+        <v>1.045840744788482</v>
       </c>
       <c r="J12">
-        <v>1.020513242785031</v>
+        <v>1.02105146801922</v>
       </c>
       <c r="K12">
-        <v>1.028947928771079</v>
+        <v>1.029300584678299</v>
       </c>
       <c r="L12">
-        <v>1.022804745290998</v>
+        <v>1.023655407149789</v>
       </c>
       <c r="M12">
-        <v>1.031574793424763</v>
+        <v>1.032168003558213</v>
       </c>
       <c r="N12">
-        <v>1.021962488644291</v>
+        <v>1.022451006461775</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.034379765196848</v>
+        <v>1.03484882721388</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.031608738804493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031873761288483</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020151554112012</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9915745362727294</v>
+        <v>0.9917113476724363</v>
       </c>
       <c r="D13">
-        <v>1.015023908185454</v>
+        <v>1.015046507201469</v>
       </c>
       <c r="E13">
-        <v>1.009171647307656</v>
+        <v>1.009621275263845</v>
       </c>
       <c r="F13">
-        <v>1.018167943195225</v>
+        <v>1.018453023346258</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046111496419281</v>
+        <v>1.046122920808262</v>
       </c>
       <c r="J13">
-        <v>1.021645864558694</v>
+        <v>1.021776767307117</v>
       </c>
       <c r="K13">
-        <v>1.029825738041012</v>
+        <v>1.029847922041189</v>
       </c>
       <c r="L13">
-        <v>1.024081766430413</v>
+        <v>1.024523016459084</v>
       </c>
       <c r="M13">
-        <v>1.032912265307945</v>
+        <v>1.033192153886613</v>
       </c>
       <c r="N13">
-        <v>1.023096718870786</v>
+        <v>1.022814519971684</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.035714898848523</v>
+        <v>1.035936155913724</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032226881018674</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032257996418493</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020342893713909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9932531069855028</v>
+        <v>0.992874538396889</v>
       </c>
       <c r="D14">
-        <v>1.016201968378753</v>
+        <v>1.015818293779153</v>
       </c>
       <c r="E14">
-        <v>1.010697632273159</v>
+        <v>1.010669329368264</v>
       </c>
       <c r="F14">
-        <v>1.019659622606442</v>
+        <v>1.019574399424402</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046635091440244</v>
+        <v>1.046441097100347</v>
       </c>
       <c r="J14">
-        <v>1.022945342845351</v>
+        <v>1.022582861406319</v>
       </c>
       <c r="K14">
-        <v>1.030841250535316</v>
+        <v>1.030464527062481</v>
       </c>
       <c r="L14">
-        <v>1.025437295987189</v>
+        <v>1.025409512917807</v>
       </c>
       <c r="M14">
-        <v>1.034236568194522</v>
+        <v>1.034152874861963</v>
       </c>
       <c r="N14">
-        <v>1.024398042565662</v>
+        <v>1.023130473473756</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.036935476166583</v>
+        <v>1.036869323987133</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032946316357318</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.032695518922922</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020515144439222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9940559838065675</v>
+        <v>0.9934441396605319</v>
       </c>
       <c r="D15">
-        <v>1.016754869320748</v>
+        <v>1.016187726946321</v>
       </c>
       <c r="E15">
-        <v>1.011374937881416</v>
+        <v>1.011137592885346</v>
       </c>
       <c r="F15">
-        <v>1.020296611475763</v>
+        <v>1.020048006020354</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046870092743777</v>
+        <v>1.046583301221438</v>
       </c>
       <c r="J15">
-        <v>1.023525549004045</v>
+        <v>1.022939459624886</v>
       </c>
       <c r="K15">
-        <v>1.031297370262286</v>
+        <v>1.030740420709858</v>
       </c>
       <c r="L15">
-        <v>1.026014727037477</v>
+        <v>1.025781705110951</v>
       </c>
       <c r="M15">
-        <v>1.034775792070094</v>
+        <v>1.034531612633293</v>
       </c>
       <c r="N15">
-        <v>1.024979072683653</v>
+        <v>1.023250018825049</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.037399285829706</v>
+        <v>1.037206288629639</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033274697315625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.032897043776007</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020581674953234</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9978323479528706</v>
+        <v>0.9962194588475464</v>
       </c>
       <c r="D16">
-        <v>1.019290443785</v>
+        <v>1.017935045193951</v>
       </c>
       <c r="E16">
-        <v>1.014319356512354</v>
+        <v>1.013222977215705</v>
       </c>
       <c r="F16">
-        <v>1.022959776019467</v>
+        <v>1.022031854524664</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047889824897116</v>
+        <v>1.047204001195534</v>
       </c>
       <c r="J16">
-        <v>1.026055171771907</v>
+        <v>1.024506610410887</v>
       </c>
       <c r="K16">
-        <v>1.033284243055952</v>
+        <v>1.031952105688766</v>
       </c>
       <c r="L16">
-        <v>1.028398862679717</v>
+        <v>1.027321532679626</v>
       </c>
       <c r="M16">
-        <v>1.036891001857356</v>
+        <v>1.035978849479815</v>
       </c>
       <c r="N16">
-        <v>1.027512287805996</v>
+        <v>1.023723403445893</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039032370469191</v>
+        <v>1.038311392409698</v>
       </c>
       <c r="Q16">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R16">
-        <v>1.034682656721138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.033757218053908</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020816965962104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9998539401733707</v>
+        <v>0.9977729604277384</v>
       </c>
       <c r="D17">
-        <v>1.020622639445487</v>
+        <v>1.018895655068223</v>
       </c>
       <c r="E17">
-        <v>1.015784572819646</v>
+        <v>1.014303510331317</v>
       </c>
       <c r="F17">
-        <v>1.024220458078637</v>
+        <v>1.022984419377085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048396107954171</v>
+        <v>1.047521926685082</v>
       </c>
       <c r="J17">
-        <v>1.027317732402364</v>
+        <v>1.025316990313396</v>
       </c>
       <c r="K17">
-        <v>1.034278489438633</v>
+        <v>1.032580292536622</v>
       </c>
       <c r="L17">
-        <v>1.029521388138645</v>
+        <v>1.02806531054856</v>
       </c>
       <c r="M17">
-        <v>1.037816736400229</v>
+        <v>1.036601102869483</v>
       </c>
       <c r="N17">
-        <v>1.028776641417366</v>
+        <v>1.023989644591915</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039634919347316</v>
+        <v>1.03867396929875</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035388212762276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034204208623848</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020912412901939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000514888271336</v>
+        <v>0.9983362009500267</v>
       </c>
       <c r="D18">
-        <v>1.021006697540777</v>
+        <v>1.019198824231739</v>
       </c>
       <c r="E18">
-        <v>1.016049584958977</v>
+        <v>1.014515111061535</v>
       </c>
       <c r="F18">
-        <v>1.024310777895225</v>
+        <v>1.023025329981189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048491445117974</v>
+        <v>1.047576123613573</v>
       </c>
       <c r="J18">
-        <v>1.02755845784999</v>
+        <v>1.025462212302727</v>
       </c>
       <c r="K18">
-        <v>1.034472418903348</v>
+        <v>1.032694190371615</v>
       </c>
       <c r="L18">
-        <v>1.029596915368391</v>
+        <v>1.02808791171847</v>
       </c>
       <c r="M18">
-        <v>1.037722667525693</v>
+        <v>1.036458109682967</v>
       </c>
       <c r="N18">
-        <v>1.029017708722739</v>
+        <v>1.023988690271652</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039322565721409</v>
+        <v>1.038322732354877</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035513677978166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034271938106268</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020864794892932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9999769945606591</v>
+        <v>0.9979958832686185</v>
       </c>
       <c r="D19">
-        <v>1.020566961371713</v>
+        <v>1.018912271486184</v>
       </c>
       <c r="E19">
-        <v>1.015257600780564</v>
+        <v>1.013931049465004</v>
       </c>
       <c r="F19">
-        <v>1.023355698348682</v>
+        <v>1.022225581749394</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048234796936965</v>
+        <v>1.047396986667463</v>
       </c>
       <c r="J19">
-        <v>1.026906238722758</v>
+        <v>1.024999746708982</v>
       </c>
       <c r="K19">
-        <v>1.033977188758108</v>
+        <v>1.032349511678762</v>
       </c>
       <c r="L19">
-        <v>1.028754904939343</v>
+        <v>1.027450293171494</v>
       </c>
       <c r="M19">
-        <v>1.03672065339195</v>
+        <v>1.035608844872305</v>
       </c>
       <c r="N19">
-        <v>1.028364563369536</v>
+        <v>1.023706218407635</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038204143781234</v>
+        <v>1.037324794492908</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035169938455435</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034035279481525</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020692519416332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9960451812524904</v>
+        <v>0.9951098257929604</v>
       </c>
       <c r="D20">
-        <v>1.017778763888812</v>
+        <v>1.016950338429554</v>
       </c>
       <c r="E20">
-        <v>1.011485599270632</v>
+        <v>1.011126891781032</v>
       </c>
       <c r="F20">
-        <v>1.01950483329835</v>
+        <v>1.019125183333941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046974786934645</v>
+        <v>1.046555503013979</v>
       </c>
       <c r="J20">
-        <v>1.023729410395588</v>
+        <v>1.022830565721995</v>
       </c>
       <c r="K20">
-        <v>1.031516036657797</v>
+        <v>1.030701543866544</v>
       </c>
       <c r="L20">
-        <v>1.025329450695662</v>
+        <v>1.024976869769741</v>
       </c>
       <c r="M20">
-        <v>1.033213170335911</v>
+        <v>1.032839873965069</v>
       </c>
       <c r="N20">
-        <v>1.025183223581755</v>
+        <v>1.022613444580747</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.034899431036389</v>
+        <v>1.034604004394298</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033433753115317</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032874444110469</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020167605303044</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9885573908393606</v>
+        <v>0.9898596637194832</v>
       </c>
       <c r="D21">
-        <v>1.012702440226025</v>
+        <v>1.013644123079788</v>
       </c>
       <c r="E21">
-        <v>1.005427507490158</v>
+        <v>1.00707193397877</v>
       </c>
       <c r="F21">
-        <v>1.013958900655771</v>
+        <v>1.015150065377176</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044887094295197</v>
+        <v>1.045363149480444</v>
       </c>
       <c r="J21">
-        <v>1.018541437391584</v>
+        <v>1.019787552539362</v>
       </c>
       <c r="K21">
-        <v>1.027447091944533</v>
+        <v>1.028371533290124</v>
       </c>
       <c r="L21">
-        <v>1.020306778516033</v>
+        <v>1.021920553706445</v>
       </c>
       <c r="M21">
-        <v>1.028680556821796</v>
+        <v>1.029849989428599</v>
       </c>
       <c r="N21">
-        <v>1.019987883061016</v>
+        <v>1.021721007755218</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.031271067318913</v>
+        <v>1.032196606257674</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030560108963613</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.031230621380855</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019720650545884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9837717201537609</v>
+        <v>0.98650323070341</v>
       </c>
       <c r="D22">
-        <v>1.009462079387327</v>
+        <v>1.011536736544256</v>
       </c>
       <c r="E22">
-        <v>1.001590381029676</v>
+        <v>1.004517944962709</v>
       </c>
       <c r="F22">
-        <v>1.010477766855346</v>
+        <v>1.012674730084757</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043541711393171</v>
+        <v>1.044589768320347</v>
       </c>
       <c r="J22">
-        <v>1.015241091125133</v>
+        <v>1.017847457128779</v>
       </c>
       <c r="K22">
-        <v>1.024848392559663</v>
+        <v>1.026883061296556</v>
       </c>
       <c r="L22">
-        <v>1.017130397861349</v>
+        <v>1.020000428666286</v>
       </c>
       <c r="M22">
-        <v>1.025844476070261</v>
+        <v>1.027999211425223</v>
       </c>
       <c r="N22">
-        <v>1.016682849924311</v>
+        <v>1.021108438882892</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029026466702897</v>
+        <v>1.030731820889411</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.028709121813668</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.03016333382581</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019437933018606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9862985690791569</v>
+        <v>0.9882061427095581</v>
       </c>
       <c r="D23">
-        <v>1.011165382823868</v>
+        <v>1.012587022603298</v>
       </c>
       <c r="E23">
-        <v>1.003609091593907</v>
+        <v>1.005791044234685</v>
       </c>
       <c r="F23">
-        <v>1.012312582555648</v>
+        <v>1.013926390315773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044248379258853</v>
+        <v>1.04496682438746</v>
       </c>
       <c r="J23">
-        <v>1.01697744598719</v>
+        <v>1.018800357038418</v>
       </c>
       <c r="K23">
-        <v>1.026211084126884</v>
+        <v>1.027606050650893</v>
       </c>
       <c r="L23">
-        <v>1.018798226671672</v>
+        <v>1.020938471898079</v>
       </c>
       <c r="M23">
-        <v>1.027336752115557</v>
+        <v>1.028920378024397</v>
       </c>
       <c r="N23">
-        <v>1.018421670609436</v>
+        <v>1.021320776989014</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030207521330954</v>
+        <v>1.031460872167072</v>
       </c>
       <c r="Q23">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R23">
-        <v>1.029662911585071</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030663886709545</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019555378067906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9959888077674827</v>
+        <v>0.9950797513019906</v>
       </c>
       <c r="D24">
-        <v>1.01771908634549</v>
+        <v>1.016910429038657</v>
       </c>
       <c r="E24">
-        <v>1.011381120960897</v>
+        <v>1.011052498996882</v>
       </c>
       <c r="F24">
-        <v>1.01938255862282</v>
+        <v>1.019025134706474</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046936368130121</v>
+        <v>1.046527083334527</v>
       </c>
       <c r="J24">
-        <v>1.023642144397344</v>
+        <v>1.022768526607612</v>
       </c>
       <c r="K24">
-        <v>1.031442019760596</v>
+        <v>1.030646946922576</v>
       </c>
       <c r="L24">
-        <v>1.025211276355746</v>
+        <v>1.024888261175524</v>
       </c>
       <c r="M24">
-        <v>1.033077635032968</v>
+        <v>1.032726186758278</v>
       </c>
       <c r="N24">
-        <v>1.025095833655783</v>
+        <v>1.022570703195969</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.034751096572619</v>
+        <v>1.034472946530399</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033353924264706</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032805653955519</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020134778522118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006672963028463</v>
+        <v>1.003716541587641</v>
       </c>
       <c r="D25">
-        <v>1.02496032269655</v>
+        <v>1.0225000118764</v>
       </c>
       <c r="E25">
-        <v>1.019986275464305</v>
+        <v>1.01791880929565</v>
       </c>
       <c r="F25">
-        <v>1.027235214384394</v>
+        <v>1.025495623952667</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049835057630179</v>
+        <v>1.048587595887972</v>
       </c>
       <c r="J25">
-        <v>1.030977823489008</v>
+        <v>1.028119473381994</v>
       </c>
       <c r="K25">
-        <v>1.037183135632324</v>
+        <v>1.034758803682342</v>
       </c>
       <c r="L25">
-        <v>1.032282055133452</v>
+        <v>1.030245184295117</v>
       </c>
       <c r="M25">
-        <v>1.039424954381166</v>
+        <v>1.037710637802288</v>
       </c>
       <c r="N25">
-        <v>1.032441930253171</v>
+        <v>1.025474821366234</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039774596982987</v>
+        <v>1.038417827702734</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037410323619505</v>
+        <v>1.035709757174015</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021109431982214</v>
       </c>
     </row>
   </sheetData>
